--- a/UseCaseDesc_GL.xlsx
+++ b/UseCaseDesc_GL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josua Golden\Documents\TPA\Desktop\Initial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103DCDBD-051F-4DA9-BB3D-1D19BB7DE76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E25B3-05F7-4A4D-81C7-5E7E35AA96DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0571906B-0A17-41C4-AEE9-F4E03D66C9C6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0571906B-0A17-41C4-AEE9-F4E03D66C9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -119,6 +119,24 @@
   </si>
   <si>
     <t>There is no request received by the finance department</t>
+  </si>
+  <si>
+    <t>Update Equipment Reports</t>
+  </si>
+  <si>
+    <t>Storage department update the equipment reports.</t>
+  </si>
+  <si>
+    <t>When storage department done checking the equipment from a report they received, they need to update the equipment status in the report so the related employee get notified about the condition of the equipment they reported whether it can be fixed or not.</t>
+  </si>
+  <si>
+    <t>Storage department want to update equipment report after done checking the equipment specified in the report.</t>
+  </si>
+  <si>
+    <t>Storage Department</t>
+  </si>
+  <si>
+    <t>Related Employee</t>
   </si>
 </sst>
 </file>
@@ -229,64 +247,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6A2B4D-04CF-474A-B3D3-E612E18B17F1}">
-  <dimension ref="B4:H69"/>
+  <dimension ref="B4:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,805 +642,869 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="10"/>
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="10"/>
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="12"/>
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="14"/>
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="14"/>
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="16"/>
+      <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="16"/>
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="2:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="14"/>
+      <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="14"/>
+      <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="10"/>
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="3" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="F22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="F23" s="3" t="s">
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="F25" s="3" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="3" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="F30" s="3" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="F31" s="3" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="F31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="F32" s="3" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="F32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="F33" s="3" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="F33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="F34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="F35" s="3" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="F36" s="3" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="F36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
-      <c r="F43" s="3" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="F43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="F44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="F45" s="3" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="F45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="F46" s="3" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="F46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="F47" s="3" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="F47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="F48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="6"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="F49" s="3" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="F49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="6"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
-      <c r="F50" s="3" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="6"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="F51" s="3" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="6"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="F54" s="3" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
-      <c r="F56" s="3" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="6"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="F57" s="3" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="F57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="6"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="F58" s="3" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="6"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
-      <c r="F59" s="3" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="F59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="6"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
-      <c r="F60" s="3" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="F60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="6"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="F61" s="3" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="F61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="6"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
-      <c r="F62" s="3" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="F62" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="6"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="F63" s="3" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="F63" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="6"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="F64" s="3" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="8"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
-      <c r="F67" s="3" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="F13:F14"/>
@@ -1442,92 +1529,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
